--- a/H_BimNote/Total BOQ탭 test/HGEN_STB-BOQ3.xlsx
+++ b/H_BimNote/Total BOQ탭 test/HGEN_STB-BOQ3.xlsx
@@ -1672,9 +1672,7 @@
           <t>M</t>
         </is>
       </c>
-      <c r="H46" s="4" t="n">
-        <v>193.129</v>
-      </c>
+      <c r="H46" s="4" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="4" t="inlineStr">
@@ -1866,9 +1864,7 @@
           <t>EA</t>
         </is>
       </c>
-      <c r="H53" s="4" t="n">
-        <v>12</v>
-      </c>
+      <c r="H53" s="4" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="4" t="inlineStr">
@@ -2893,9 +2889,7 @@
           <t>M2</t>
         </is>
       </c>
-      <c r="H95" s="4" t="n">
-        <v>6485.11</v>
-      </c>
+      <c r="H95" s="4" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="4" t="inlineStr">
